--- a/Back/BD.xlsx
+++ b/Back/BD.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfar\OneDrive\Escritorio\TRABAJO\LEARNY\Learny-web\Back\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Practicas\Learny-web\Back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F743B7E-3F9A-453F-A87B-93CE7E9A7413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520AE6BF-7847-4914-AEC2-4104F4E6E0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>Cedula</t>
   </si>
@@ -31,9 +44,6 @@
     <t># tarjeta de credito</t>
   </si>
   <si>
-    <t>Tasa de interes</t>
-  </si>
-  <si>
     <t>Saldo TC</t>
   </si>
   <si>
@@ -67,24 +77,6 @@
     <t>Informacion</t>
   </si>
   <si>
-    <t>1000589665</t>
-  </si>
-  <si>
-    <t>1102345678</t>
-  </si>
-  <si>
-    <t>1014567890</t>
-  </si>
-  <si>
-    <t>Juan Franco</t>
-  </si>
-  <si>
-    <t>Andrés Norris</t>
-  </si>
-  <si>
-    <t>Luisa Torres</t>
-  </si>
-  <si>
     <t>2345-6789-0123-4567</t>
   </si>
   <si>
@@ -94,15 +86,6 @@
     <t>9876-5432-1098-7654</t>
   </si>
   <si>
-    <t>2.5%</t>
-  </si>
-  <si>
-    <t>3.1%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
     <t>$1.340.000</t>
   </si>
   <si>
@@ -241,17 +224,129 @@
     <t>Clave</t>
   </si>
   <si>
-    <t>Jose Alfaro</t>
-  </si>
-  <si>
-    <t>2345-6789-0123-4568</t>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Norris</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Numero de cuota</t>
+  </si>
+  <si>
+    <t>Digitos finales tarjeta</t>
+  </si>
+  <si>
+    <t>Monto Libre Inversion</t>
+  </si>
+  <si>
+    <t>Plazo en meses</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Cuota mensual</t>
+  </si>
+  <si>
+    <t>Cuota capital</t>
+  </si>
+  <si>
+    <t>Cuota seguro</t>
+  </si>
+  <si>
+    <t>Numero de cuota 2</t>
+  </si>
+  <si>
+    <t>Ultimo pago</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Pago intereses</t>
+  </si>
+  <si>
+    <t>890.056</t>
+  </si>
+  <si>
+    <t>21.084</t>
+  </si>
+  <si>
+    <t>668.236</t>
+  </si>
+  <si>
+    <t>861.446</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>725.861</t>
+  </si>
+  <si>
+    <t>24.352</t>
+  </si>
+  <si>
+    <t>27.893</t>
+  </si>
+  <si>
+    <t>28.617</t>
+  </si>
+  <si>
+    <t>25.875</t>
+  </si>
+  <si>
+    <t>32.544</t>
+  </si>
+  <si>
+    <t>750.214</t>
+  </si>
+  <si>
+    <t>689.322</t>
+  </si>
+  <si>
+    <t>Apellido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +356,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -337,10 +439,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,10 +454,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -366,11 +487,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,22 +804,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14" style="2"/>
-    <col min="4" max="4" width="22.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="14" style="2"/>
+    <col min="1" max="4" width="14" style="2"/>
+    <col min="5" max="7" width="22.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>72</v>
+    <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -697,671 +828,886 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:31" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1000953583</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="12" t="str">
+        <f>RIGHT(E2,3)</f>
+        <v>567</v>
+      </c>
+      <c r="G2" s="12">
+        <v>60</v>
+      </c>
+      <c r="H2" s="12">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12">
+        <v>72</v>
+      </c>
+      <c r="J2" s="12">
+        <v>13</v>
+      </c>
+      <c r="K2" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="12">
+        <v>60</v>
+      </c>
+      <c r="P2" s="15" t="str">
+        <f>TEXT(S2,"dd")</f>
+        <v>05</v>
+      </c>
+      <c r="Q2" s="15" t="str">
+        <f>TEXT(S2,"mm")</f>
+        <v>06</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="18"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="3">
+        <v>3</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="18"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="3">
+        <v>4</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" s="18"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>1234</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="18">
+        <v>1102345678</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F6" s="12" t="str">
+        <f>RIGHT(E6,3)</f>
+        <v>543</v>
+      </c>
+      <c r="G6" s="12">
+        <v>55</v>
+      </c>
+      <c r="H6" s="12">
+        <v>23</v>
+      </c>
+      <c r="I6" s="12">
+        <v>60</v>
+      </c>
+      <c r="J6" s="12">
+        <v>17</v>
+      </c>
+      <c r="K6" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="12">
+        <v>55</v>
+      </c>
+      <c r="P6" s="15" t="str">
+        <f t="shared" ref="P6" si="0">TEXT(S6,"dd")</f>
+        <v>15</v>
+      </c>
+      <c r="Q6" s="15" t="str">
+        <f>TEXT(S6,"mm")</f>
+        <v>05</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="U6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="V6" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="W6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="3">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="Y6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="AA6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="AC6" s="3">
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>69</v>
+      <c r="AD6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="3">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="3">
-        <v>3</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3">
-        <v>4</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1234</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>53</v>
-      </c>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="3">
+      <c r="N7" s="7"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="3">
         <v>2</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="7"/>
+      <c r="W7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>49</v>
-      </c>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="3">
+      <c r="N8" s="7"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="3">
         <v>3</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="7"/>
+      <c r="W8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>51</v>
-      </c>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="3">
+      <c r="N9" s="8"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="3">
         <v>4</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="8"/>
+      <c r="W9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>1234</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="18">
+        <v>1193102028</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f>RIGHT(E10,3)</f>
+        <v>654</v>
+      </c>
+      <c r="G10" s="12">
+        <v>24</v>
+      </c>
+      <c r="H10" s="12">
+        <v>56</v>
+      </c>
+      <c r="I10" s="12">
+        <v>60</v>
+      </c>
+      <c r="J10" s="12">
+        <v>15</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="12">
+        <v>24</v>
+      </c>
+      <c r="P10" s="15" t="str">
+        <f t="shared" ref="P10" si="1">TEXT(S10,"dd")</f>
+        <v>28</v>
+      </c>
+      <c r="Q10" s="15" t="str">
+        <f>TEXT(S10,"mm")</f>
+        <v>05</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="3">
+        <v>2</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE11" s="18"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="3">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" s="18"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="3">
+        <v>4</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="X13" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="3">
-        <v>4</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="3">
-        <v>2</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="3">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="3">
-        <v>4</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>1234</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1193102028</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="3">
-        <v>2</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="3">
-        <v>3</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="3">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="9"/>
+      <c r="AE13" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="P14:P17"/>
+  <mergeCells count="72">
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="U6:U9"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AA6:AA9"/>
+    <mergeCell ref="AB6:AB9"/>
+    <mergeCell ref="AA10:AA13"/>
+    <mergeCell ref="AB10:AB13"/>
+    <mergeCell ref="AE6:AE9"/>
+    <mergeCell ref="AE10:AE13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="AA2:AA5"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="S6:S9"/>
+    <mergeCell ref="S10:S13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q2 Q6 Q10" formula="1"/>
+    <ignoredError sqref="R2:R13 L7:N9 L11:N13 L10:N10 M6:N6 M3:N5 L2:N2 L3:L6 T11:T13 T7:T9 T3:T5 T2:U2 T6:U6 U3:U5 T10:U10 U7:U9 U11:U13" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>